--- a/run_log/run_results/train_history/training_history_run_2.xlsx
+++ b/run_log/run_results/train_history/training_history_run_2.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04833932220935822</v>
+        <v>0.1060158684849739</v>
       </c>
       <c r="B2">
-        <v>0.9858733415603638</v>
+        <v>0.98294597864151</v>
       </c>
       <c r="C2">
-        <v>0.0825486034154892</v>
+        <v>0.01189486496150494</v>
       </c>
       <c r="D2">
-        <v>0.9649532437324524</v>
+        <v>0.9982830882072449</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.007420191075652838</v>
+        <v>0.03220825642347336</v>
       </c>
       <c r="B3">
-        <v>0.9985779523849487</v>
+        <v>0.9959748387336731</v>
       </c>
       <c r="C3">
-        <v>0.1434595584869385</v>
+        <v>0.01809039153158665</v>
       </c>
       <c r="D3">
-        <v>0.9704439043998718</v>
+        <v>0.9979015588760376</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003879142459481955</v>
+        <v>0.01974356546998024</v>
       </c>
       <c r="B4">
-        <v>0.999045729637146</v>
+        <v>0.9966527819633484</v>
       </c>
       <c r="C4">
-        <v>0.1153204217553139</v>
+        <v>0.007627138402312994</v>
       </c>
       <c r="D4">
-        <v>0.9717289805412292</v>
+        <v>0.9987600445747375</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002378892153501511</v>
+        <v>0.01533698569983244</v>
       </c>
       <c r="B5">
-        <v>0.9994760751724243</v>
+        <v>0.996589183807373</v>
       </c>
       <c r="C5">
-        <v>0.03995640575885773</v>
+        <v>0.004463640507310629</v>
       </c>
       <c r="D5">
-        <v>0.9856308698654175</v>
+        <v>0.9989507794380188</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0009852313669398427</v>
+        <v>0.0120523264631629</v>
       </c>
       <c r="B6">
-        <v>0.9998316168785095</v>
+        <v>0.9970552921295166</v>
       </c>
       <c r="C6">
-        <v>0.01573740877211094</v>
+        <v>0.005144278053194284</v>
       </c>
       <c r="D6">
-        <v>0.9929906725883484</v>
+        <v>0.9981877207756042</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001054562511853874</v>
+        <v>0.008542587049305439</v>
       </c>
       <c r="B7">
-        <v>0.9997006058692932</v>
+        <v>0.9981145262718201</v>
       </c>
       <c r="C7">
-        <v>0.02066832967102528</v>
+        <v>0.002715906128287315</v>
       </c>
       <c r="D7">
-        <v>0.9905374050140381</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001288739847950637</v>
+        <v>0.007502995897084475</v>
       </c>
       <c r="B8">
-        <v>0.9996258020401001</v>
+        <v>0.9982839822769165</v>
       </c>
       <c r="C8">
-        <v>0.08437103778123856</v>
+        <v>0.002613786607980728</v>
       </c>
       <c r="D8">
-        <v>0.9752336740493774</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0003164126246701926</v>
+        <v>0.007005696184933186</v>
       </c>
       <c r="B9">
-        <v>0.9999438524246216</v>
+        <v>0.9982839822769165</v>
       </c>
       <c r="C9">
-        <v>0.04178978875279427</v>
+        <v>0.003068094374611974</v>
       </c>
       <c r="D9">
-        <v>0.9843457937240601</v>
+        <v>0.9994276762008667</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0003303955309092999</v>
+        <v>0.005488919094204903</v>
       </c>
       <c r="B10">
-        <v>0.9999251365661621</v>
+        <v>0.9987500905990601</v>
       </c>
       <c r="C10">
-        <v>0.009437036700546741</v>
+        <v>0.004755532369017601</v>
       </c>
       <c r="D10">
-        <v>0.997897207736969</v>
+        <v>0.9994276762008667</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0008123774896375835</v>
+        <v>0.006934571079909801</v>
       </c>
       <c r="B11">
-        <v>0.99981290102005</v>
+        <v>0.9984322786331177</v>
       </c>
       <c r="C11">
-        <v>0.007611251436173916</v>
+        <v>0.00293750362470746</v>
       </c>
       <c r="D11">
-        <v>0.9982476830482483</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0004708358901552856</v>
+        <v>0.007033452391624451</v>
       </c>
       <c r="B12">
-        <v>0.9999064207077026</v>
+        <v>0.9982839822769165</v>
       </c>
       <c r="C12">
-        <v>0.01882079429924488</v>
+        <v>0.002698276191949844</v>
       </c>
       <c r="D12">
-        <v>0.9927570223808289</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005456038634292781</v>
+        <v>0.006866606883704662</v>
       </c>
       <c r="B13">
-        <v>0.9999064207077026</v>
+        <v>0.9986229538917542</v>
       </c>
       <c r="C13">
-        <v>0.03413322567939758</v>
+        <v>0.002456559799611568</v>
       </c>
       <c r="D13">
-        <v>0.9885513782501221</v>
+        <v>0.9996184706687927</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>5.613287794403732E-05</v>
+        <v>0.00552320946007967</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.9987500905990601</v>
       </c>
       <c r="C14">
-        <v>0.004456778988242149</v>
+        <v>0.002960914047434926</v>
       </c>
       <c r="D14">
-        <v>0.9990653991699219</v>
+        <v>0.9995231032371521</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0001085637559299357</v>
+        <v>0.006903073750436306</v>
       </c>
       <c r="B15">
-        <v>0.9999438524246216</v>
+        <v>0.9983475804328918</v>
       </c>
       <c r="C15">
-        <v>0.04125217720866203</v>
+        <v>0.002061939565464854</v>
       </c>
       <c r="D15">
-        <v>0.9882009625434875</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0001902511721709743</v>
+        <v>0.005548911169171333</v>
       </c>
       <c r="B16">
-        <v>0.9999438524246216</v>
+        <v>0.9986865520477295</v>
       </c>
       <c r="C16">
-        <v>0.009739763103425503</v>
+        <v>0.002646982436999679</v>
       </c>
       <c r="D16">
-        <v>0.9970794320106506</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0001596149086253718</v>
+        <v>0.006238820031285286</v>
       </c>
       <c r="B17">
-        <v>0.9999812841415405</v>
+        <v>0.9984534978866577</v>
       </c>
       <c r="C17">
-        <v>0.09437227994203568</v>
+        <v>0.003029127838090062</v>
       </c>
       <c r="D17">
-        <v>0.9842289686203003</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1.275501927011646E-05</v>
+        <v>0.005873973481357098</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.9985805749893188</v>
       </c>
       <c r="C18">
-        <v>0.07638875395059586</v>
+        <v>0.003058843547478318</v>
       </c>
       <c r="D18">
-        <v>0.9771028161048889</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.001265460392460227</v>
+        <v>0.006283506751060486</v>
       </c>
       <c r="B19">
-        <v>0.9997754693031311</v>
+        <v>0.9985382556915283</v>
       </c>
       <c r="C19">
-        <v>0.05701514333486557</v>
+        <v>0.00215220102109015</v>
       </c>
       <c r="D19">
-        <v>0.9866822361946106</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.000232833597692661</v>
+        <v>0.006131339818239212</v>
       </c>
       <c r="B20">
-        <v>0.9999251365661621</v>
+        <v>0.9985805749893188</v>
       </c>
       <c r="C20">
-        <v>0.02143860794603825</v>
+        <v>0.002312135649845004</v>
       </c>
       <c r="D20">
-        <v>0.9941588640213013</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>7.318546704482287E-05</v>
+        <v>0.005830490961670876</v>
       </c>
       <c r="B21">
-        <v>0.9999625682830811</v>
+        <v>0.9986017942428589</v>
       </c>
       <c r="C21">
-        <v>0.1168845593929291</v>
+        <v>0.002500922651961446</v>
       </c>
       <c r="D21">
-        <v>0.9823598265647888</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0003546606749296188</v>
+        <v>0.005165109876543283</v>
       </c>
       <c r="B22">
-        <v>0.9999438524246216</v>
+        <v>0.9988348484039307</v>
       </c>
       <c r="C22">
-        <v>0.0556681826710701</v>
+        <v>0.002457036869600415</v>
       </c>
       <c r="D22">
-        <v>0.9877336621284485</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0001304207689827308</v>
+        <v>0.005619572475552559</v>
       </c>
       <c r="B23">
-        <v>0.9999625682830811</v>
+        <v>0.9986865520477295</v>
       </c>
       <c r="C23">
-        <v>0.06122842058539391</v>
+        <v>0.003119073109701276</v>
       </c>
       <c r="D23">
-        <v>0.9869158864021301</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0004601851105690002</v>
+        <v>0.004923094529658556</v>
       </c>
       <c r="B24">
-        <v>0.9999251365661621</v>
+        <v>0.9988136291503906</v>
       </c>
       <c r="C24">
-        <v>0.05015833303332329</v>
+        <v>0.002870586700737476</v>
       </c>
       <c r="D24">
-        <v>0.9897196292877197</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0004546598065644503</v>
+        <v>0.006507820449769497</v>
       </c>
       <c r="B25">
-        <v>0.9998877644538879</v>
+        <v>0.9985805749893188</v>
       </c>
       <c r="C25">
-        <v>0.2754287719726562</v>
+        <v>0.002109257271513343</v>
       </c>
       <c r="D25">
-        <v>0.9560747742652893</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6.883637979626656E-06</v>
+        <v>0.00503992848098278</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9987712502479553</v>
       </c>
       <c r="C26">
-        <v>0.07971369475126266</v>
+        <v>0.001816458883695304</v>
       </c>
       <c r="D26">
-        <v>0.9785046577453613</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0001700990833342075</v>
+        <v>0.005642907693982124</v>
       </c>
       <c r="B27">
-        <v>0.9999438524246216</v>
+        <v>0.99872887134552</v>
       </c>
       <c r="C27">
-        <v>0.02964102290570736</v>
+        <v>0.002152129309251904</v>
       </c>
       <c r="D27">
-        <v>0.990070104598999</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>3.735128484549932E-05</v>
+        <v>0.006288413424044847</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9984322786331177</v>
       </c>
       <c r="C28">
-        <v>0.08351249992847443</v>
+        <v>0.003456659615039825</v>
       </c>
       <c r="D28">
-        <v>0.97394859790802</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>2.4021377612371E-05</v>
+        <v>0.005495802499353886</v>
       </c>
       <c r="B29">
-        <v>0.9999812841415405</v>
+        <v>0.9986653327941895</v>
       </c>
       <c r="C29">
-        <v>0.04915815219283104</v>
+        <v>0.003089317586272955</v>
       </c>
       <c r="D29">
-        <v>0.9873831868171692</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0003377265529707074</v>
+        <v>0.004574081394821405</v>
       </c>
       <c r="B30">
-        <v>0.9999064207077026</v>
+        <v>0.9988983869552612</v>
       </c>
       <c r="C30">
-        <v>0.04560408368706703</v>
+        <v>0.003325679106637836</v>
       </c>
       <c r="D30">
-        <v>0.9899532794952393</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>1.583969037710631E-06</v>
+        <v>0.005157672334462404</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9987924695014954</v>
       </c>
       <c r="C31">
-        <v>0.02995284646749496</v>
+        <v>0.003631195984780788</v>
       </c>
       <c r="D31">
-        <v>0.9922897219657898</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1.117468218581052E-05</v>
+        <v>0.006275206338614225</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9985170364379883</v>
       </c>
       <c r="C32">
-        <v>0.04408152773976326</v>
+        <v>0.004379638005048037</v>
       </c>
       <c r="D32">
-        <v>0.9907710552215576</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001780160528142005</v>
+        <v>0.005880849901586771</v>
       </c>
       <c r="B33">
-        <v>0.9999812841415405</v>
+        <v>0.9985805749893188</v>
       </c>
       <c r="C33">
-        <v>0.01535058580338955</v>
+        <v>0.003731110598891973</v>
       </c>
       <c r="D33">
-        <v>0.9954439401626587</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001727813942125067</v>
+        <v>0.004843940027058125</v>
       </c>
       <c r="B34">
-        <v>0.9999438524246216</v>
+        <v>0.9988560080528259</v>
       </c>
       <c r="C34">
-        <v>0.003807427128776908</v>
+        <v>0.003582606092095375</v>
       </c>
       <c r="D34">
-        <v>0.9984813332557678</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0003942078619729728</v>
+        <v>0.005134676583111286</v>
       </c>
       <c r="B35">
-        <v>0.9998690485954285</v>
+        <v>0.9987077116966248</v>
       </c>
       <c r="C35">
-        <v>0.2089270949363708</v>
+        <v>0.003486247500404716</v>
       </c>
       <c r="D35">
-        <v>0.9665887951850891</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.000160368115757592</v>
+        <v>0.005623715929687023</v>
       </c>
       <c r="B36">
-        <v>0.9999625682830811</v>
+        <v>0.9986017942428589</v>
       </c>
       <c r="C36">
-        <v>0.01008987985551357</v>
+        <v>0.004535359796136618</v>
       </c>
       <c r="D36">
-        <v>0.9968457818031311</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1.354082883153751E-06</v>
+        <v>0.004520641639828682</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9988348484039307</v>
       </c>
       <c r="C37">
-        <v>0.009793656878173351</v>
+        <v>0.004230548162013292</v>
       </c>
       <c r="D37">
-        <v>0.9968457818031311</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>3.298364390502684E-05</v>
+        <v>0.004571388941258192</v>
       </c>
       <c r="B38">
-        <v>0.9999812841415405</v>
+        <v>0.9987500905990601</v>
       </c>
       <c r="C38">
-        <v>0.008525599725544453</v>
+        <v>0.003789717564359307</v>
       </c>
       <c r="D38">
-        <v>0.9976635575294495</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0003342247218824923</v>
+        <v>0.005260188598185778</v>
       </c>
       <c r="B39">
-        <v>0.9999438524246216</v>
+        <v>0.9984111189842224</v>
       </c>
       <c r="C39">
-        <v>0.003146122442558408</v>
+        <v>0.003331918036565185</v>
       </c>
       <c r="D39">
-        <v>0.9995326995849609</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>7.129178266040981E-05</v>
+        <v>0.004574465099722147</v>
       </c>
       <c r="B40">
-        <v>0.9999812841415405</v>
+        <v>0.9985382556915283</v>
       </c>
       <c r="C40">
-        <v>0.01345897931605577</v>
+        <v>0.003652730258181691</v>
       </c>
       <c r="D40">
-        <v>0.9947429895401001</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.000198296518647112</v>
+        <v>0.003656366607174277</v>
       </c>
       <c r="B41">
-        <v>0.9999625682830811</v>
+        <v>0.9989195466041565</v>
       </c>
       <c r="C41">
-        <v>0.0008307515527121723</v>
+        <v>0.004458204377442598</v>
       </c>
       <c r="D41">
-        <v>0.9997663497924805</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>8.251360850408673E-05</v>
+        <v>0.003555480390787125</v>
       </c>
       <c r="B42">
-        <v>0.9999625682830811</v>
+        <v>0.9991313815116882</v>
       </c>
       <c r="C42">
-        <v>0.001907157246023417</v>
+        <v>0.004676146432757378</v>
       </c>
       <c r="D42">
-        <v>0.9995326995849609</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0002591229567769915</v>
+        <v>0.003170523094013333</v>
       </c>
       <c r="B43">
-        <v>0.9999812841415405</v>
+        <v>0.9992373585700989</v>
       </c>
       <c r="C43">
-        <v>0.000134718997287564</v>
+        <v>0.004576669074594975</v>
       </c>
       <c r="D43">
-        <v>0.9998831748962402</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0005228777881711721</v>
+        <v>0.004053585696965456</v>
       </c>
       <c r="B44">
-        <v>0.9999438524246216</v>
+        <v>0.9989831447601318</v>
       </c>
       <c r="C44">
-        <v>0.009964795783162117</v>
+        <v>0.005633137654513121</v>
       </c>
       <c r="D44">
-        <v>0.9975467324256897</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>6.618197858188068E-06</v>
+        <v>0.005070705432444811</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9987712502479553</v>
       </c>
       <c r="C45">
-        <v>0.004784882999956608</v>
+        <v>0.006026525516062975</v>
       </c>
       <c r="D45">
-        <v>0.9992990493774414</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0003911474486812949</v>
+        <v>0.003692806698381901</v>
       </c>
       <c r="B46">
-        <v>0.9999064207077026</v>
+        <v>0.9991313815116882</v>
       </c>
       <c r="C46">
-        <v>0.003490778850391507</v>
+        <v>0.005791679490357637</v>
       </c>
       <c r="D46">
-        <v>0.9995326995849609</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0001389505341649055</v>
+        <v>0.003790432587265968</v>
       </c>
       <c r="B47">
-        <v>0.9999812841415405</v>
+        <v>0.9990466833114624</v>
       </c>
       <c r="C47">
-        <v>0.01245449017733335</v>
+        <v>0.006063591688871384</v>
       </c>
       <c r="D47">
-        <v>0.997897207736969</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>2.865393253159709E-05</v>
+        <v>0.003532886737957597</v>
       </c>
       <c r="B48">
-        <v>0.9999812841415405</v>
+        <v>0.9991949796676636</v>
       </c>
       <c r="C48">
-        <v>0.02615511044859886</v>
+        <v>0.006573354359716177</v>
       </c>
       <c r="D48">
-        <v>0.9947429895401001</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>2.035746729234233E-05</v>
+        <v>0.003735285717993975</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9991949796676636</v>
       </c>
       <c r="C49">
-        <v>0.006393485702574253</v>
+        <v>0.007104669697582722</v>
       </c>
       <c r="D49">
-        <v>0.9989485740661621</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0002341158251510933</v>
+        <v>0.002962330589070916</v>
       </c>
       <c r="B50">
-        <v>0.9999251365661621</v>
+        <v>0.9993220567703247</v>
       </c>
       <c r="C50">
-        <v>0.4320614039897919</v>
+        <v>0.007400864735245705</v>
       </c>
       <c r="D50">
-        <v>0.95572429895401</v>
+        <v>0.9997138381004333</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0001393752172589302</v>
+        <v>0.002940981416031718</v>
       </c>
       <c r="B51">
-        <v>0.9999438524246216</v>
+        <v>0.9993432760238647</v>
       </c>
       <c r="C51">
-        <v>0.002123389858752489</v>
+        <v>0.006460781674832106</v>
       </c>
       <c r="D51">
-        <v>0.9996495246887207</v>
+        <v>0.999809205532074</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_2.xlsx
+++ b/run_log/run_results/train_history/training_history_run_2.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1060158684849739</v>
+        <v>0.08315501362085342</v>
       </c>
       <c r="B2">
-        <v>0.98294597864151</v>
+        <v>0.9773325324058533</v>
       </c>
       <c r="C2">
-        <v>0.01189486496150494</v>
+        <v>0.008656255900859833</v>
       </c>
       <c r="D2">
-        <v>0.9982830882072449</v>
+        <v>0.9987184405326843</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03220825642347336</v>
+        <v>0.0126164061948657</v>
       </c>
       <c r="B3">
-        <v>0.9959748387336731</v>
+        <v>0.9980259537696838</v>
       </c>
       <c r="C3">
-        <v>0.01809039153158665</v>
+        <v>0.005805364344269037</v>
       </c>
       <c r="D3">
-        <v>0.9979015588760376</v>
+        <v>0.9990388751029968</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01974356546998024</v>
+        <v>0.008325016126036644</v>
       </c>
       <c r="B4">
-        <v>0.9966527819633484</v>
+        <v>0.9983209371566772</v>
       </c>
       <c r="C4">
-        <v>0.007627138402312994</v>
+        <v>0.002757597947493196</v>
       </c>
       <c r="D4">
-        <v>0.9987600445747375</v>
+        <v>0.9993592500686646</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01533698569983244</v>
+        <v>0.003220483893528581</v>
       </c>
       <c r="B5">
-        <v>0.996589183807373</v>
+        <v>0.9992512464523315</v>
       </c>
       <c r="C5">
-        <v>0.004463640507310629</v>
+        <v>0.0005781799554824829</v>
       </c>
       <c r="D5">
-        <v>0.9989507794380188</v>
+        <v>0.9997597336769104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0120523264631629</v>
+        <v>0.003856554394587874</v>
       </c>
       <c r="B6">
-        <v>0.9970552921295166</v>
+        <v>0.9992738962173462</v>
       </c>
       <c r="C6">
-        <v>0.005144278053194284</v>
+        <v>0.0002524404844734818</v>
       </c>
       <c r="D6">
-        <v>0.9981877207756042</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.008542587049305439</v>
+        <v>0.001940985908731818</v>
       </c>
       <c r="B7">
-        <v>0.9981145262718201</v>
+        <v>0.9996142387390137</v>
       </c>
       <c r="C7">
-        <v>0.002715906128287315</v>
+        <v>0.0007461768691428006</v>
       </c>
       <c r="D7">
-        <v>0.9997138381004333</v>
+        <v>0.9996796250343323</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.007502995897084475</v>
+        <v>0.001462956657633185</v>
       </c>
       <c r="B8">
-        <v>0.9982839822769165</v>
+        <v>0.9997504353523254</v>
       </c>
       <c r="C8">
-        <v>0.002613786607980728</v>
+        <v>0.0003442996821831912</v>
       </c>
       <c r="D8">
-        <v>0.9997138381004333</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.007005696184933186</v>
+        <v>0.001754448283463717</v>
       </c>
       <c r="B9">
-        <v>0.9982839822769165</v>
+        <v>0.9996596574783325</v>
       </c>
       <c r="C9">
-        <v>0.003068094374611974</v>
+        <v>0.0006934424745850265</v>
       </c>
       <c r="D9">
-        <v>0.9994276762008667</v>
+        <v>0.9996796250343323</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.005488919094204903</v>
+        <v>0.0006591174169443548</v>
       </c>
       <c r="B10">
-        <v>0.9987500905990601</v>
+        <v>0.9997730851173401</v>
       </c>
       <c r="C10">
-        <v>0.004755532369017601</v>
+        <v>0.0005000810488127172</v>
       </c>
       <c r="D10">
-        <v>0.9994276762008667</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.006934571079909801</v>
+        <v>0.00131720129866153</v>
       </c>
       <c r="B11">
-        <v>0.9984322786331177</v>
+        <v>0.9996142387390137</v>
       </c>
       <c r="C11">
-        <v>0.00293750362470746</v>
+        <v>2.675762698345352E-05</v>
       </c>
       <c r="D11">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.007033452391624451</v>
+        <v>0.0006066200439818203</v>
       </c>
       <c r="B12">
-        <v>0.9982839822769165</v>
+        <v>0.999863862991333</v>
       </c>
       <c r="C12">
-        <v>0.002698276191949844</v>
+        <v>0.0003097179578617215</v>
       </c>
       <c r="D12">
-        <v>0.9997138381004333</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.006866606883704662</v>
+        <v>0.0006012291414663196</v>
       </c>
       <c r="B13">
-        <v>0.9986229538917542</v>
+        <v>0.9997730851173401</v>
       </c>
       <c r="C13">
-        <v>0.002456559799611568</v>
+        <v>0.0001013177388813347</v>
       </c>
       <c r="D13">
-        <v>0.9996184706687927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.00552320946007967</v>
+        <v>0.0008342261426150799</v>
       </c>
       <c r="B14">
-        <v>0.9987500905990601</v>
+        <v>0.9998865723609924</v>
       </c>
       <c r="C14">
-        <v>0.002960914047434926</v>
+        <v>7.514948083553463E-05</v>
       </c>
       <c r="D14">
-        <v>0.9995231032371521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.006903073750436306</v>
+        <v>5.136373147252016E-05</v>
       </c>
       <c r="B15">
-        <v>0.9983475804328918</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.002061939565464854</v>
+        <v>6.173732344905147E-06</v>
       </c>
       <c r="D15">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.005548911169171333</v>
+        <v>0.0007021779892966151</v>
       </c>
       <c r="B16">
-        <v>0.9986865520477295</v>
+        <v>0.9997957944869995</v>
       </c>
       <c r="C16">
-        <v>0.002646982436999679</v>
+        <v>1.363915203000943E-06</v>
       </c>
       <c r="D16">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.006238820031285286</v>
+        <v>0.000599684368353337</v>
       </c>
       <c r="B17">
-        <v>0.9984534978866577</v>
+        <v>0.9998865723609924</v>
       </c>
       <c r="C17">
-        <v>0.003029127838090062</v>
+        <v>6.828194045738201E-07</v>
       </c>
       <c r="D17">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.005873973481357098</v>
+        <v>4.516240733209997E-05</v>
       </c>
       <c r="B18">
-        <v>0.9985805749893188</v>
+        <v>0.9999772906303406</v>
       </c>
       <c r="C18">
-        <v>0.003058843547478318</v>
+        <v>5.34313983280299E-07</v>
       </c>
       <c r="D18">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.006283506751060486</v>
+        <v>0.0003091931575909257</v>
       </c>
       <c r="B19">
-        <v>0.9985382556915283</v>
+        <v>0.999863862991333</v>
       </c>
       <c r="C19">
-        <v>0.00215220102109015</v>
+        <v>0.000134128742502071</v>
       </c>
       <c r="D19">
-        <v>0.999809205532074</v>
+        <v>0.9999198913574219</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.006131339818239212</v>
+        <v>0.001270797802135348</v>
       </c>
       <c r="B20">
-        <v>0.9985805749893188</v>
+        <v>0.9996596574783325</v>
       </c>
       <c r="C20">
-        <v>0.002312135649845004</v>
+        <v>2.657196273503359E-05</v>
       </c>
       <c r="D20">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.005830490961670876</v>
+        <v>0.0003688965225592256</v>
       </c>
       <c r="B21">
-        <v>0.9986017942428589</v>
+        <v>0.9999319314956665</v>
       </c>
       <c r="C21">
-        <v>0.002500922651961446</v>
+        <v>2.224756059376887E-07</v>
       </c>
       <c r="D21">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.005165109876543283</v>
+        <v>0.0006585626979358494</v>
       </c>
       <c r="B22">
-        <v>0.9988348484039307</v>
+        <v>0.9998865723609924</v>
       </c>
       <c r="C22">
-        <v>0.002457036869600415</v>
+        <v>9.305878734267026E-08</v>
       </c>
       <c r="D22">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.005619572475552559</v>
+        <v>0.0002061673876596615</v>
       </c>
       <c r="B23">
-        <v>0.9986865520477295</v>
+        <v>0.9999546408653259</v>
       </c>
       <c r="C23">
-        <v>0.003119073109701276</v>
+        <v>1.54807196395268E-07</v>
       </c>
       <c r="D23">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.004923094529658556</v>
+        <v>0.0007675917586311698</v>
       </c>
       <c r="B24">
-        <v>0.9988136291503906</v>
+        <v>0.9998185038566589</v>
       </c>
       <c r="C24">
-        <v>0.002870586700737476</v>
+        <v>5.78155976427297E-08</v>
       </c>
       <c r="D24">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.006507820449769497</v>
+        <v>0.0006697191274724901</v>
       </c>
       <c r="B25">
-        <v>0.9985805749893188</v>
+        <v>0.9999546408653259</v>
       </c>
       <c r="C25">
-        <v>0.002109257271513343</v>
+        <v>1.269851622964779E-06</v>
       </c>
       <c r="D25">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.00503992848098278</v>
+        <v>0.0003406107716728002</v>
       </c>
       <c r="B26">
-        <v>0.9987712502479553</v>
+        <v>0.9998865723609924</v>
       </c>
       <c r="C26">
-        <v>0.001816458883695304</v>
+        <v>4.68504737227704E-08</v>
       </c>
       <c r="D26">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.005642907693982124</v>
+        <v>0.000675029878038913</v>
       </c>
       <c r="B27">
-        <v>0.99872887134552</v>
+        <v>0.9998865723609924</v>
       </c>
       <c r="C27">
-        <v>0.002152129309251904</v>
+        <v>1.498220001394657E-07</v>
       </c>
       <c r="D27">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.006288413424044847</v>
+        <v>4.625549263437279E-05</v>
       </c>
       <c r="B28">
-        <v>0.9984322786331177</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.003456659615039825</v>
+        <v>1.052818205948824E-07</v>
       </c>
       <c r="D28">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.005495802499353886</v>
+        <v>0.0004655005177482963</v>
       </c>
       <c r="B29">
-        <v>0.9986653327941895</v>
+        <v>0.9998411536216736</v>
       </c>
       <c r="C29">
-        <v>0.003089317586272955</v>
+        <v>3.590131882447167E-06</v>
       </c>
       <c r="D29">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.004574081394821405</v>
+        <v>0.0001992036413867027</v>
       </c>
       <c r="B30">
-        <v>0.9988983869552612</v>
+        <v>0.9999546408653259</v>
       </c>
       <c r="C30">
-        <v>0.003325679106637836</v>
+        <v>3.423273483349476E-06</v>
       </c>
       <c r="D30">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.005157672334462404</v>
+        <v>4.922739026369527E-05</v>
       </c>
       <c r="B31">
-        <v>0.9987924695014954</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.003631195984780788</v>
+        <v>1.676548677664869E-08</v>
       </c>
       <c r="D31">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.006275206338614225</v>
+        <v>0.0001970739831449464</v>
       </c>
       <c r="B32">
-        <v>0.9985170364379883</v>
+        <v>0.9999092221260071</v>
       </c>
       <c r="C32">
-        <v>0.004379638005048037</v>
+        <v>0.002547807991504669</v>
       </c>
       <c r="D32">
-        <v>0.9997138381004333</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.005880849901586771</v>
+        <v>0.0007342449971474707</v>
       </c>
       <c r="B33">
-        <v>0.9985805749893188</v>
+        <v>0.999863862991333</v>
       </c>
       <c r="C33">
-        <v>0.003731110598891973</v>
+        <v>3.023961880899151E-06</v>
       </c>
       <c r="D33">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.004843940027058125</v>
+        <v>1.857917959569022E-05</v>
       </c>
       <c r="B34">
-        <v>0.9988560080528259</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.003582606092095375</v>
+        <v>1.131363546846842E-06</v>
       </c>
       <c r="D34">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.005134676583111286</v>
+        <v>0.0004506352997850627</v>
       </c>
       <c r="B35">
-        <v>0.9987077116966248</v>
+        <v>0.9999092221260071</v>
       </c>
       <c r="C35">
-        <v>0.003486247500404716</v>
+        <v>1.002831950813743E-07</v>
       </c>
       <c r="D35">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.005623715929687023</v>
+        <v>0.0003837404365185648</v>
       </c>
       <c r="B36">
-        <v>0.9986017942428589</v>
+        <v>0.9998411536216736</v>
       </c>
       <c r="C36">
-        <v>0.004535359796136618</v>
+        <v>6.110747907683844E-09</v>
       </c>
       <c r="D36">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.004520641639828682</v>
+        <v>0.0003577698662411422</v>
       </c>
       <c r="B37">
-        <v>0.9988348484039307</v>
+        <v>0.9999319314956665</v>
       </c>
       <c r="C37">
-        <v>0.004230548162013292</v>
+        <v>3.34186817108062E-10</v>
       </c>
       <c r="D37">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.004571388941258192</v>
+        <v>0.0003000157012138516</v>
       </c>
       <c r="B38">
-        <v>0.9987500905990601</v>
+        <v>0.9999092221260071</v>
       </c>
       <c r="C38">
-        <v>0.003789717564359307</v>
+        <v>1.422678641560537E-09</v>
       </c>
       <c r="D38">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.005260188598185778</v>
+        <v>4.64539771201089E-05</v>
       </c>
       <c r="B39">
-        <v>0.9984111189842224</v>
+        <v>0.9999772906303406</v>
       </c>
       <c r="C39">
-        <v>0.003331918036565185</v>
+        <v>4.201206604825813E-10</v>
       </c>
       <c r="D39">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.004574465099722147</v>
+        <v>0.0003385647432878613</v>
       </c>
       <c r="B40">
-        <v>0.9985382556915283</v>
+        <v>0.9999319314956665</v>
       </c>
       <c r="C40">
-        <v>0.003652730258181691</v>
+        <v>0.000100694815046154</v>
       </c>
       <c r="D40">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.003656366607174277</v>
+        <v>7.001096673775464E-05</v>
       </c>
       <c r="B41">
-        <v>0.9989195466041565</v>
+        <v>0.9999772906303406</v>
       </c>
       <c r="C41">
-        <v>0.004458204377442598</v>
+        <v>1.102543478737061E-06</v>
       </c>
       <c r="D41">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.003555480390787125</v>
+        <v>0.0005310841370373964</v>
       </c>
       <c r="B42">
-        <v>0.9991313815116882</v>
+        <v>0.999863862991333</v>
       </c>
       <c r="C42">
-        <v>0.004676146432757378</v>
+        <v>0.0002739960036706179</v>
       </c>
       <c r="D42">
-        <v>0.999809205532074</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.003170523094013333</v>
+        <v>0.001024087541736662</v>
       </c>
       <c r="B43">
-        <v>0.9992373585700989</v>
+        <v>0.999863862991333</v>
       </c>
       <c r="C43">
-        <v>0.004576669074594975</v>
+        <v>0.0002763093798421323</v>
       </c>
       <c r="D43">
-        <v>0.999809205532074</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.004053585696965456</v>
+        <v>1.942887320183218E-05</v>
       </c>
       <c r="B44">
-        <v>0.9989831447601318</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.005633137654513121</v>
+        <v>0.0001300514850299805</v>
       </c>
       <c r="D44">
-        <v>0.999809205532074</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.005070705432444811</v>
+        <v>0.0001620481634745374</v>
       </c>
       <c r="B45">
-        <v>0.9987712502479553</v>
+        <v>0.9999319314956665</v>
       </c>
       <c r="C45">
-        <v>0.006026525516062975</v>
+        <v>0.0002705890219658613</v>
       </c>
       <c r="D45">
-        <v>0.9997138381004333</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.003692806698381901</v>
+        <v>2.624984699650668E-05</v>
       </c>
       <c r="B46">
-        <v>0.9991313815116882</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.005791679490357637</v>
+        <v>2.349628994124942E-05</v>
       </c>
       <c r="D46">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.003790432587265968</v>
+        <v>6.959089660085738E-06</v>
       </c>
       <c r="B47">
-        <v>0.9990466833114624</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.006063591688871384</v>
+        <v>0.0002268574462505057</v>
       </c>
       <c r="D47">
-        <v>0.999809205532074</v>
+        <v>0.9998397827148438</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.003532886737957597</v>
+        <v>0.0008469157037325203</v>
       </c>
       <c r="B48">
-        <v>0.9991949796676636</v>
+        <v>0.9998185038566589</v>
       </c>
       <c r="C48">
-        <v>0.006573354359716177</v>
+        <v>7.208343788533966E-08</v>
       </c>
       <c r="D48">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.003735285717993975</v>
+        <v>0.0004613042110577226</v>
       </c>
       <c r="B49">
-        <v>0.9991949796676636</v>
+        <v>0.9999546408653259</v>
       </c>
       <c r="C49">
-        <v>0.007104669697582722</v>
+        <v>1.574762364953131E-07</v>
       </c>
       <c r="D49">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.002962330589070916</v>
+        <v>9.758869418874383E-05</v>
       </c>
       <c r="B50">
-        <v>0.9993220567703247</v>
+        <v>0.9999772906303406</v>
       </c>
       <c r="C50">
-        <v>0.007400864735245705</v>
+        <v>2.080440572171938E-05</v>
       </c>
       <c r="D50">
-        <v>0.9997138381004333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.002940981416031718</v>
+        <v>4.725187682197429E-05</v>
       </c>
       <c r="B51">
-        <v>0.9993432760238647</v>
+        <v>0.9999772906303406</v>
       </c>
       <c r="C51">
-        <v>0.006460781674832106</v>
+        <v>2.278741931149852E-06</v>
       </c>
       <c r="D51">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_2.xlsx
+++ b/run_log/run_results/train_history/training_history_run_2.xlsx
@@ -395,139 +395,139 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.08315501362085342</v>
+        <v>0.05297061800956726</v>
       </c>
       <c r="B2">
-        <v>0.9773325324058533</v>
+        <v>0.9850805997848511</v>
       </c>
       <c r="C2">
-        <v>0.008656255900859833</v>
+        <v>0.02776168286800385</v>
       </c>
       <c r="D2">
-        <v>0.9987184405326843</v>
+        <v>0.9953567981719971</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.0126164061948657</v>
+        <v>0.008638261817395687</v>
       </c>
       <c r="B3">
-        <v>0.9980259537696838</v>
+        <v>0.9984014630317688</v>
       </c>
       <c r="C3">
-        <v>0.005805364344269037</v>
+        <v>0.0158476997166872</v>
       </c>
       <c r="D3">
-        <v>0.9990388751029968</v>
+        <v>0.9963343143463135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.008325016126036644</v>
+        <v>0.004096722695976496</v>
       </c>
       <c r="B4">
-        <v>0.9983209371566772</v>
+        <v>0.9988391995429993</v>
       </c>
       <c r="C4">
-        <v>0.002757597947493196</v>
+        <v>0.002228233031928539</v>
       </c>
       <c r="D4">
-        <v>0.9993592500686646</v>
+        <v>0.9990224838256836</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003220483893528581</v>
+        <v>0.001423759269528091</v>
       </c>
       <c r="B5">
-        <v>0.9992512464523315</v>
+        <v>0.9996384382247925</v>
       </c>
       <c r="C5">
-        <v>0.0005781799554824829</v>
+        <v>0.0006458171410486102</v>
       </c>
       <c r="D5">
-        <v>0.9997597336769104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.003856554394587874</v>
+        <v>0.001939180307090282</v>
       </c>
       <c r="B6">
-        <v>0.9992738962173462</v>
+        <v>0.9996194243431091</v>
       </c>
       <c r="C6">
-        <v>0.0002524404844734818</v>
+        <v>0.000266658200416714</v>
       </c>
       <c r="D6">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001940985908731818</v>
+        <v>0.001024800701998174</v>
       </c>
       <c r="B7">
-        <v>0.9996142387390137</v>
+        <v>0.9997145533561707</v>
       </c>
       <c r="C7">
-        <v>0.0007461768691428006</v>
+        <v>8.454782073386014E-05</v>
       </c>
       <c r="D7">
-        <v>0.9996796250343323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001462956657633185</v>
+        <v>0.00196632812730968</v>
       </c>
       <c r="B8">
-        <v>0.9997504353523254</v>
+        <v>0.9995813369750977</v>
       </c>
       <c r="C8">
-        <v>0.0003442996821831912</v>
+        <v>0.0001295774127356708</v>
       </c>
       <c r="D8">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001754448283463717</v>
+        <v>0.0007570366724394262</v>
       </c>
       <c r="B9">
-        <v>0.9996596574783325</v>
+        <v>0.9997716546058655</v>
       </c>
       <c r="C9">
-        <v>0.0006934424745850265</v>
+        <v>5.06466931256E-05</v>
       </c>
       <c r="D9">
-        <v>0.9996796250343323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0006591174169443548</v>
+        <v>0.0007868724060244858</v>
       </c>
       <c r="B10">
-        <v>0.9997730851173401</v>
+        <v>0.9997716546058655</v>
       </c>
       <c r="C10">
-        <v>0.0005000810488127172</v>
+        <v>4.302233355701901E-05</v>
       </c>
       <c r="D10">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.00131720129866153</v>
+        <v>0.0005520881386473775</v>
       </c>
       <c r="B11">
-        <v>0.9996142387390137</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C11">
-        <v>2.675762698345352E-05</v>
+        <v>1.558025724079926E-05</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -535,27 +535,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0006066200439818203</v>
+        <v>0.0005973918596282601</v>
       </c>
       <c r="B12">
-        <v>0.999863862991333</v>
+        <v>0.9998287558555603</v>
       </c>
       <c r="C12">
-        <v>0.0003097179578617215</v>
+        <v>3.197484329575673E-05</v>
       </c>
       <c r="D12">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0006012291414663196</v>
+        <v>0.0002919227408710867</v>
       </c>
       <c r="B13">
-        <v>0.9997730851173401</v>
+        <v>0.9999238848686218</v>
       </c>
       <c r="C13">
-        <v>0.0001013177388813347</v>
+        <v>5.278091066429624E-06</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0008342261426150799</v>
+        <v>0.0005308371037244797</v>
       </c>
       <c r="B14">
-        <v>0.9998865723609924</v>
+        <v>0.9998096823692322</v>
       </c>
       <c r="C14">
-        <v>7.514948083553463E-05</v>
+        <v>7.331217148021096E-06</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>5.136373147252016E-05</v>
+        <v>0.0006463845493271947</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.9999048709869385</v>
       </c>
       <c r="C15">
-        <v>6.173732344905147E-06</v>
+        <v>9.279639925807714E-05</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0007021779892966151</v>
+        <v>0.0006180675700306892</v>
       </c>
       <c r="B16">
-        <v>0.9997957944869995</v>
+        <v>0.999866783618927</v>
       </c>
       <c r="C16">
-        <v>1.363915203000943E-06</v>
+        <v>9.865923402685439E-07</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.000599684368353337</v>
+        <v>0.0005904207355342805</v>
       </c>
       <c r="B17">
-        <v>0.9998865723609924</v>
+        <v>0.9998477697372437</v>
       </c>
       <c r="C17">
-        <v>6.828194045738201E-07</v>
+        <v>1.955155084942817E-06</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>4.516240733209997E-05</v>
+        <v>0.0002343400556128472</v>
       </c>
       <c r="B18">
-        <v>0.9999772906303406</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C18">
-        <v>5.34313983280299E-07</v>
+        <v>1.502354052718147E-06</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,27 +633,27 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0003091931575909257</v>
+        <v>0.0006626341491937637</v>
       </c>
       <c r="B19">
-        <v>0.999863862991333</v>
+        <v>0.9998096823692322</v>
       </c>
       <c r="C19">
-        <v>0.000134128742502071</v>
+        <v>4.290456843136781E-07</v>
       </c>
       <c r="D19">
-        <v>0.9999198913574219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.001270797802135348</v>
+        <v>0.0007167106959968805</v>
       </c>
       <c r="B20">
-        <v>0.9996596574783325</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C20">
-        <v>2.657196273503359E-05</v>
+        <v>5.285048132463999E-07</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0003688965225592256</v>
+        <v>0.0001745160552673042</v>
       </c>
       <c r="B21">
-        <v>0.9999319314956665</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C21">
-        <v>2.224756059376887E-07</v>
+        <v>3.326848911910929E-07</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0006585626979358494</v>
+        <v>0.0001081222653738223</v>
       </c>
       <c r="B22">
-        <v>0.9998865723609924</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C22">
-        <v>9.305878734267026E-08</v>
+        <v>1.158743714313459E-07</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002061673876596615</v>
+        <v>0.000142380129545927</v>
       </c>
       <c r="B23">
-        <v>0.9999546408653259</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C23">
-        <v>1.54807196395268E-07</v>
+        <v>8.32798221495068E-08</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0007675917586311698</v>
+        <v>0.0007438646862283349</v>
       </c>
       <c r="B24">
-        <v>0.9998185038566589</v>
+        <v>0.9998096823692322</v>
       </c>
       <c r="C24">
-        <v>5.78155976427297E-08</v>
+        <v>7.302297149180959E-07</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0006697191274724901</v>
+        <v>0.0001643219875404611</v>
       </c>
       <c r="B25">
-        <v>0.9999546408653259</v>
+        <v>0.9999238848686218</v>
       </c>
       <c r="C25">
-        <v>1.269851622964779E-06</v>
+        <v>1.944291057043301E-07</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0003406107716728002</v>
+        <v>8.55125836096704E-05</v>
       </c>
       <c r="B26">
-        <v>0.9998865723609924</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C26">
-        <v>4.68504737227704E-08</v>
+        <v>2.336387794343864E-08</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.000675029878038913</v>
+        <v>2.80625090454123E-06</v>
       </c>
       <c r="B27">
-        <v>0.9998865723609924</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1.498220001394657E-07</v>
+        <v>9.49708045538955E-09</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>4.625549263437279E-05</v>
+        <v>9.868038614513353E-05</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C28">
-        <v>1.052818205948824E-07</v>
+        <v>1.40416824834233E-08</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0004655005177482963</v>
+        <v>0.0001325308840023354</v>
       </c>
       <c r="B29">
-        <v>0.9998411536216736</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C29">
-        <v>3.590131882447167E-06</v>
+        <v>4.180414947541067E-08</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001992036413867027</v>
+        <v>0.0005380103830248117</v>
       </c>
       <c r="B30">
-        <v>0.9999546408653259</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C30">
-        <v>3.423273483349476E-06</v>
+        <v>7.751712871595373E-08</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>4.922739026369527E-05</v>
+        <v>0.0006957969162613153</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9998477697372437</v>
       </c>
       <c r="C31">
-        <v>1.676548677664869E-08</v>
+        <v>2.391717046634767E-08</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,27 +815,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001970739831449464</v>
+        <v>0.0001476978650316596</v>
       </c>
       <c r="B32">
-        <v>0.9999092221260071</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C32">
-        <v>0.002547807991504669</v>
+        <v>2.144094679579212E-08</v>
       </c>
       <c r="D32">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0007342449971474707</v>
+        <v>0.0004551385645754635</v>
       </c>
       <c r="B33">
-        <v>0.999863862991333</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C33">
-        <v>3.023961880899151E-06</v>
+        <v>8.415681662654606E-08</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1.857917959569022E-05</v>
+        <v>2.671026231837459E-05</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C34">
-        <v>1.131363546846842E-06</v>
+        <v>1.890647816082947E-08</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0004506352997850627</v>
+        <v>2.56000566878356E-05</v>
       </c>
       <c r="B35">
-        <v>0.9999092221260071</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C35">
-        <v>1.002831950813743E-07</v>
+        <v>2.414996913557843E-08</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0003837404365185648</v>
+        <v>4.637566962628625E-05</v>
       </c>
       <c r="B36">
-        <v>0.9998411536216736</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C36">
-        <v>6.110747907683844E-09</v>
+        <v>9.176627457918585E-09</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0003577698662411422</v>
+        <v>0.0004940321668982506</v>
       </c>
       <c r="B37">
-        <v>0.9999319314956665</v>
+        <v>0.9999238848686218</v>
       </c>
       <c r="C37">
-        <v>3.34186817108062E-10</v>
+        <v>7.920424422991346E-07</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0003000157012138516</v>
+        <v>0.0001078139684977941</v>
       </c>
       <c r="B38">
-        <v>0.9999092221260071</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C38">
-        <v>1.422678641560537E-09</v>
+        <v>3.350197230744811E-09</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>4.64539771201089E-05</v>
+        <v>0.0002516054082661867</v>
       </c>
       <c r="B39">
-        <v>0.9999772906303406</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C39">
-        <v>4.201206604825813E-10</v>
+        <v>2.085740561597049E-06</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0003385647432878613</v>
+        <v>0.0006333301425911486</v>
       </c>
       <c r="B40">
-        <v>0.9999319314956665</v>
+        <v>0.9998477697372437</v>
       </c>
       <c r="C40">
-        <v>0.000100694815046154</v>
+        <v>3.315205532317123E-08</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>7.001096673775464E-05</v>
+        <v>0.0001859597105067223</v>
       </c>
       <c r="B41">
-        <v>0.9999772906303406</v>
+        <v>0.9999048709869385</v>
       </c>
       <c r="C41">
-        <v>1.102543478737061E-06</v>
+        <v>2.426692802259822E-08</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,69 +955,69 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0005310841370373964</v>
+        <v>3.200391120117274E-06</v>
       </c>
       <c r="B42">
-        <v>0.999863862991333</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.0002739960036706179</v>
+        <v>2.846186752947233E-08</v>
       </c>
       <c r="D42">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.001024087541736662</v>
+        <v>5.458916348288767E-06</v>
       </c>
       <c r="B43">
-        <v>0.999863862991333</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.0002763093798421323</v>
+        <v>7.894823461640499E-09</v>
       </c>
       <c r="D43">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.942887320183218E-05</v>
+        <v>0.0002096290118061006</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C44">
-        <v>0.0001300514850299805</v>
+        <v>1.4451138952154E-07</v>
       </c>
       <c r="D44">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001620481634745374</v>
+        <v>0.0004857924941461533</v>
       </c>
       <c r="B45">
-        <v>0.9999319314956665</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C45">
-        <v>0.0002705890219658613</v>
+        <v>3.613719457007392E-07</v>
       </c>
       <c r="D45">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2.624984699650668E-05</v>
+        <v>0.0001506252883700654</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C46">
-        <v>2.349628994124942E-05</v>
+        <v>1.468274331273278E-05</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,27 +1025,27 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>6.959089660085738E-06</v>
+        <v>0.0003001784207299352</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C47">
-        <v>0.0002268574462505057</v>
+        <v>8.874215563992038E-05</v>
       </c>
       <c r="D47">
-        <v>0.9998397827148438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0008469157037325203</v>
+        <v>0.0002384933468420058</v>
       </c>
       <c r="B48">
-        <v>0.9998185038566589</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C48">
-        <v>7.208343788533966E-08</v>
+        <v>6.988642553551472E-08</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0004613042110577226</v>
+        <v>8.121335849864408E-05</v>
       </c>
       <c r="B49">
-        <v>0.9999546408653259</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C49">
-        <v>1.574762364953131E-07</v>
+        <v>1.377949754299834E-08</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>9.758869418874383E-05</v>
+        <v>5.65636764804367E-05</v>
       </c>
       <c r="B50">
-        <v>0.9999772906303406</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C50">
-        <v>2.080440572171938E-05</v>
+        <v>1.223543488748646E-08</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>4.725187682197429E-05</v>
+        <v>0.0001373050617985427</v>
       </c>
       <c r="B51">
-        <v>0.9999772906303406</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C51">
-        <v>2.278741931149852E-06</v>
+        <v>2.176775524276309E-07</v>
       </c>
       <c r="D51">
         <v>1</v>
